--- a/template/cdiscount.xlsx
+++ b/template/cdiscount.xlsx
@@ -1,18 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView windowHeight="15640"/>
   </bookViews>
   <sheets>
-    <sheet name="LWT for Amzon" sheetId="1" r:id="rId4"/>
-    <sheet name="公式模版" sheetId="2" r:id="rId5"/>
+    <sheet name="LWT for Amzon" sheetId="1" r:id="rId1"/>
+    <sheet name="公式模版" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="88">
   <si>
     <t>European Cdiscount Declared Value-Analysis Report(v2.0)</t>
   </si>
@@ -150,10 +153,10 @@
     <t>Profit Rate</t>
   </si>
   <si>
-    <t>Ground Sercice Rate</t>
-  </si>
-  <si>
-    <t>Ground Sercice Fee</t>
+    <t>Ground Service Rate</t>
+  </si>
+  <si>
+    <t>Ground Service Fee</t>
   </si>
   <si>
     <t>Warehouse Rate</t>
@@ -200,6 +203,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">exchange rate </t>
     </r>
@@ -209,6 +213,7 @@
         <sz val="12"/>
         <color indexed="9"/>
         <rFont val="Arial"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -222,6 +227,7 @@
         <sz val="12"/>
         <color indexed="14"/>
         <rFont val="Arial"/>
+        <charset val="134"/>
       </rPr>
       <t>https://www.belastingdienst.nl/rekenhulpen/wisselkoersen/</t>
     </r>
@@ -232,6 +238,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Category commission rate </t>
     </r>
@@ -241,6 +248,7 @@
         <sz val="12"/>
         <color indexed="9"/>
         <rFont val="Arial"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -260,6 +268,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">_Dispatch fees </t>
     </r>
@@ -269,6 +278,7 @@
         <sz val="12"/>
         <color indexed="9"/>
         <rFont val="Arial"/>
+        <charset val="134"/>
       </rPr>
       <t>3</t>
     </r>
@@ -282,6 +292,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">_Storage Fee </t>
     </r>
@@ -291,6 +302,7 @@
         <sz val="12"/>
         <color indexed="9"/>
         <rFont val="Arial"/>
+        <charset val="134"/>
       </rPr>
       <t>4</t>
     </r>
@@ -326,6 +338,12 @@
     <t>Fulfillment fee</t>
   </si>
   <si>
+    <t>Ground Sercice Rate</t>
+  </si>
+  <si>
+    <t>Ground Sercice Fee</t>
+  </si>
+  <si>
     <t>Delivery To Amazon</t>
   </si>
   <si>
@@ -342,86 +360,230 @@
   </si>
   <si>
     <t>https://www.amazon.co.uk/gp/product/B07Y82XX51</t>
-  </si>
-  <si>
-    <t>0.0000%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="0.0000"/>
-    <numFmt numFmtId="60" formatCode="0.00&quot; &quot;"/>
-    <numFmt numFmtId="61" formatCode="0.000"/>
-    <numFmt numFmtId="62" formatCode="0.000000"/>
-    <numFmt numFmtId="63" formatCode="#,##0&quot; &quot;"/>
-    <numFmt numFmtId="64" formatCode="0.00000000&quot; &quot;"/>
-    <numFmt numFmtId="65" formatCode="#,##0.00&quot; &quot;"/>
+  <numFmts count="11">
+    <numFmt numFmtId="176" formatCode="0.000000"/>
+    <numFmt numFmtId="177" formatCode="0.0000"/>
+    <numFmt numFmtId="178" formatCode="0.00000000&quot; &quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0&quot; &quot;"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="0.000"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="#,##0.00&quot; &quot;"/>
+    <numFmt numFmtId="182" formatCode="0.00&quot; &quot;"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="30"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b val="1"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="16"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
+      <color indexed="14"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color indexed="15"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="12"/>
       <color indexed="9"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="14"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color indexed="15"/>
-      <name val="SimSun"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -431,28 +593,238 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="23">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -464,32 +836,6 @@
       </right>
       <top style="thin">
         <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -517,37 +863,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="11"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -573,34 +892,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
         <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="11"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -620,248 +917,567 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="67">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="182" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="60" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="61" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="62" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="61" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="62" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="61" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="61" fontId="6" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="61" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="62" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="63" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="64" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="65" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="62" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffd9e1f2"/>
-      <rgbColor rgb="ffd9e0f2"/>
-      <rgbColor rgb="ff00b0f0"/>
-      <rgbColor rgb="ff2d4d6a"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00AAAAAA"/>
+      <rgbColor rgb="00D9E1F2"/>
+      <rgbColor rgb="00D9E0F2"/>
+      <rgbColor rgb="0000B0F0"/>
+      <rgbColor rgb="002D4D6A"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -882,8 +1498,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8089899" y="630957"/>
-          <a:ext cx="2684782" cy="383047"/>
+          <a:off x="7568565" y="630555"/>
+          <a:ext cx="2496185" cy="382905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -894,11 +1510,6 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
       <xdr:txBody>
         <a:bodyPr wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" anchor="t">
@@ -920,8 +1531,7 @@
             <a:buSzTx/>
             <a:buFontTx/>
             <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -933,7 +1543,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none">
+            <a:rPr sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -945,6 +1555,16 @@
             </a:rPr>
             <a:t>1</a:t>
           </a:r>
+          <a:endParaRPr sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -970,8 +1590,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14284983" y="645562"/>
-          <a:ext cx="353011" cy="383047"/>
+          <a:off x="13390245" y="645160"/>
+          <a:ext cx="299085" cy="382905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -982,11 +1602,6 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
       <xdr:txBody>
         <a:bodyPr wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" anchor="t">
@@ -1008,8 +1623,7 @@
             <a:buSzTx/>
             <a:buFontTx/>
             <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -1021,7 +1635,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none">
+            <a:rPr sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -1033,6 +1647,16 @@
             </a:rPr>
             <a:t>2</a:t>
           </a:r>
+          <a:endParaRPr sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1058,8 +1682,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23904286" y="645562"/>
-          <a:ext cx="433642" cy="383047"/>
+          <a:off x="22403435" y="645160"/>
+          <a:ext cx="344805" cy="382905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1070,11 +1694,6 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
       <xdr:txBody>
         <a:bodyPr wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" anchor="t">
@@ -1096,8 +1715,7 @@
             <a:buSzTx/>
             <a:buFontTx/>
             <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -1109,7 +1727,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none">
+            <a:rPr sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -1121,6 +1739,16 @@
             </a:rPr>
             <a:t>3</a:t>
           </a:r>
+          <a:endParaRPr sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1146,8 +1774,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25705869" y="642186"/>
-          <a:ext cx="433645" cy="383047"/>
+          <a:off x="24056975" y="641985"/>
+          <a:ext cx="374650" cy="382905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1158,11 +1786,6 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
       <xdr:txBody>
         <a:bodyPr wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" anchor="t">
@@ -1184,8 +1807,7 @@
             <a:buSzTx/>
             <a:buFontTx/>
             <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -1197,7 +1819,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none">
+            <a:rPr sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -1209,6 +1831,16 @@
             </a:rPr>
             <a:t>4</a:t>
           </a:r>
+          <a:endParaRPr sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1218,7 +1850,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office 主题​​">
       <a:dk1>
@@ -1417,8 +2049,6 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
@@ -1438,8 +2068,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1451,7 +2080,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1468,8 +2097,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1494,8 +2122,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1520,8 +2147,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1546,8 +2172,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1572,8 +2197,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1598,8 +2222,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1624,8 +2247,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1650,8 +2272,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1676,8 +2297,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1690,9 +2310,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1706,8 +2332,6 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -1727,8 +2351,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1753,8 +2376,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1779,8 +2401,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1805,8 +2426,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1831,8 +2451,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1857,8 +2476,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1883,8 +2501,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1909,8 +2526,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1935,8 +2551,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1961,8 +2576,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1975,9 +2589,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1988,8 +2608,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
@@ -2009,8 +2627,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2022,7 +2639,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2039,8 +2656,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2065,8 +2681,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2091,8 +2706,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2117,8 +2731,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2143,8 +2756,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2169,8 +2781,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2195,8 +2806,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2221,8 +2831,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2247,8 +2856,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2261,9 +2869,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
@@ -2272,65 +2886,972 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:BA12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="AN8" sqref="AN8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="14" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.6719" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.17188" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6696428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3482142857143" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.16964285714286" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.84821428571429" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.67188" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.35156" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.66964285714286" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.34821428571429" style="1" customWidth="1"/>
     <col min="9" max="10" width="12.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.3516" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.3482142857143" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.67188" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.66964285714286" style="1" customWidth="1"/>
     <col min="14" max="14" width="9.5" style="1" customWidth="1"/>
-    <col min="15" max="17" width="8.85156" style="1" customWidth="1"/>
+    <col min="15" max="17" width="8.84821428571429" style="1" customWidth="1"/>
     <col min="18" max="18" width="9" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.1719" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.1696428571429" style="1" customWidth="1"/>
     <col min="20" max="20" width="10.5" style="1" customWidth="1"/>
-    <col min="21" max="21" width="12.1719" style="1" customWidth="1"/>
-    <col min="22" max="22" width="12.6719" style="1" customWidth="1"/>
-    <col min="23" max="23" width="6.67188" style="1" customWidth="1"/>
-    <col min="24" max="24" width="6.85156" style="1" customWidth="1"/>
+    <col min="21" max="21" width="12.1696428571429" style="1" customWidth="1"/>
+    <col min="22" max="22" width="12.6696428571429" style="1" customWidth="1"/>
+    <col min="23" max="23" width="6.66964285714286" style="1" customWidth="1"/>
+    <col min="24" max="24" width="6.84821428571429" style="1" customWidth="1"/>
     <col min="25" max="26" width="13" style="1" customWidth="1"/>
-    <col min="27" max="27" width="14.3516" style="1" customWidth="1"/>
+    <col min="27" max="27" width="14.3482142857143" style="1" customWidth="1"/>
     <col min="28" max="28" width="14" style="1" customWidth="1"/>
-    <col min="29" max="29" width="16.8516" style="1" customWidth="1"/>
+    <col min="29" max="29" width="16.8482142857143" style="1" customWidth="1"/>
     <col min="30" max="30" width="17.5" style="1" customWidth="1"/>
-    <col min="31" max="33" width="11.8516" style="1" customWidth="1"/>
-    <col min="34" max="34" width="9.67188" style="1" customWidth="1"/>
+    <col min="31" max="33" width="11.8482142857143" style="1" customWidth="1"/>
+    <col min="34" max="34" width="9.66964285714286" style="1" customWidth="1"/>
     <col min="35" max="35" width="5.5" style="1" customWidth="1"/>
     <col min="36" max="36" width="6.5" style="1" customWidth="1"/>
     <col min="37" max="37" width="10" style="1" customWidth="1"/>
-    <col min="38" max="38" width="8.85156" style="1" customWidth="1"/>
-    <col min="39" max="39" width="10.6719" style="1" customWidth="1"/>
-    <col min="40" max="40" width="11.3516" style="1" customWidth="1"/>
-    <col min="41" max="42" width="10.6719" style="1" customWidth="1"/>
+    <col min="38" max="38" width="8.84821428571429" style="1" customWidth="1"/>
+    <col min="39" max="39" width="10.6696428571429" style="1" customWidth="1"/>
+    <col min="40" max="40" width="11.3482142857143" style="1" customWidth="1"/>
+    <col min="41" max="42" width="10.6696428571429" style="1" customWidth="1"/>
     <col min="43" max="43" width="9" style="1" customWidth="1"/>
-    <col min="44" max="44" width="14.1719" style="1" customWidth="1"/>
+    <col min="44" max="44" width="14.1696428571429" style="1" customWidth="1"/>
     <col min="45" max="45" width="14.5" style="1" customWidth="1"/>
     <col min="46" max="46" width="13" style="1" customWidth="1"/>
     <col min="47" max="47" width="9" style="1" customWidth="1"/>
-    <col min="48" max="48" width="14.8516" style="1" customWidth="1"/>
+    <col min="48" max="48" width="14.8482142857143" style="1" customWidth="1"/>
     <col min="49" max="49" width="19" style="1" customWidth="1"/>
     <col min="50" max="50" width="8" style="1" customWidth="1"/>
     <col min="51" max="51" width="9" style="1" customWidth="1"/>
     <col min="52" max="52" width="9.5" style="1" customWidth="1"/>
-    <col min="53" max="53" width="13.8516" style="1" customWidth="1"/>
-    <col min="54" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="53" max="53" width="13.8482142857143" style="1" customWidth="1"/>
+    <col min="54" max="16384" width="8.84821428571429" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="34.5" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="34.5" customHeight="1" spans="1:53">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="5"/>
+      <c r="AZ1" s="24"/>
+      <c r="BA1" s="63"/>
+    </row>
+    <row r="2" ht="26.5" customHeight="1" spans="1:53">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="7"/>
+      <c r="T2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7"/>
+      <c r="AR2" s="7"/>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="7"/>
+      <c r="AV2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY2" s="7"/>
+      <c r="AZ2" s="7"/>
+      <c r="BA2" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1" spans="1:53">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV3" s="7"/>
+      <c r="AW3" s="7"/>
+      <c r="AX3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY3" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA3" s="31"/>
+    </row>
+    <row r="4" ht="14.25" customHeight="1" spans="1:53">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="55"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="55"/>
+      <c r="AG4" s="45"/>
+      <c r="AH4" s="45"/>
+      <c r="AI4" s="55"/>
+      <c r="AJ4" s="55"/>
+      <c r="AK4" s="55"/>
+      <c r="AL4" s="55"/>
+      <c r="AM4" s="55"/>
+      <c r="AN4" s="45"/>
+      <c r="AO4" s="55"/>
+      <c r="AP4" s="45"/>
+      <c r="AQ4" s="55"/>
+      <c r="AR4" s="45"/>
+      <c r="AS4" s="55"/>
+      <c r="AT4" s="55"/>
+      <c r="AU4" s="55"/>
+      <c r="AV4" s="12"/>
+      <c r="AW4" s="12"/>
+      <c r="AX4" s="55"/>
+      <c r="AY4" s="12"/>
+      <c r="AZ4" s="60"/>
+      <c r="BA4" s="64"/>
+    </row>
+    <row r="5" ht="14.25" customHeight="1" spans="1:53">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="47"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="47"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="47"/>
+      <c r="AQ5" s="56"/>
+      <c r="AR5" s="47"/>
+      <c r="AS5" s="56"/>
+      <c r="AT5" s="56"/>
+      <c r="AU5" s="56"/>
+      <c r="AV5" s="14"/>
+      <c r="AW5" s="14"/>
+      <c r="AX5" s="56"/>
+      <c r="AY5" s="14"/>
+      <c r="AZ5" s="61"/>
+      <c r="BA5" s="65"/>
+    </row>
+    <row r="6" ht="20.25" customHeight="1" spans="1:53">
+      <c r="A6" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="56"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="56"/>
+      <c r="AD6" s="47"/>
+      <c r="AE6" s="47"/>
+      <c r="AF6" s="56"/>
+      <c r="AG6" s="47"/>
+      <c r="AH6" s="47"/>
+      <c r="AI6" s="56"/>
+      <c r="AJ6" s="56"/>
+      <c r="AK6" s="56"/>
+      <c r="AL6" s="56"/>
+      <c r="AM6" s="56"/>
+      <c r="AN6" s="47"/>
+      <c r="AO6" s="56"/>
+      <c r="AP6" s="47"/>
+      <c r="AQ6" s="56"/>
+      <c r="AR6" s="47"/>
+      <c r="AS6" s="56"/>
+      <c r="AT6" s="56"/>
+      <c r="AU6" s="56"/>
+      <c r="AV6" s="14"/>
+      <c r="AW6" s="14"/>
+      <c r="AX6" s="56"/>
+      <c r="AY6" s="14"/>
+      <c r="AZ6" s="61"/>
+      <c r="BA6" s="65"/>
+    </row>
+    <row r="7" ht="16.5" customHeight="1" spans="1:53">
+      <c r="A7" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="14"/>
+      <c r="AM7" s="14"/>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="14"/>
+      <c r="AP7" s="14"/>
+      <c r="AQ7" s="14"/>
+      <c r="AR7" s="14"/>
+      <c r="AS7" s="14"/>
+      <c r="AT7" s="14"/>
+      <c r="AU7" s="14"/>
+      <c r="AV7" s="14"/>
+      <c r="AW7" s="14"/>
+      <c r="AX7" s="14"/>
+      <c r="AY7" s="14"/>
+      <c r="AZ7" s="14"/>
+      <c r="BA7" s="34"/>
+    </row>
+    <row r="8" ht="16.5" customHeight="1" spans="1:53">
+      <c r="A8" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="14"/>
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="14"/>
+      <c r="AP8" s="14"/>
+      <c r="AQ8" s="14"/>
+      <c r="AR8" s="14"/>
+      <c r="AS8" s="14"/>
+      <c r="AT8" s="14"/>
+      <c r="AU8" s="14"/>
+      <c r="AV8" s="14"/>
+      <c r="AW8" s="14"/>
+      <c r="AX8" s="14"/>
+      <c r="AY8" s="14"/>
+      <c r="AZ8" s="14"/>
+      <c r="BA8" s="34"/>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="1:53">
+      <c r="A9" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="14"/>
+      <c r="AK9" s="14"/>
+      <c r="AL9" s="14"/>
+      <c r="AM9" s="14"/>
+      <c r="AN9" s="14"/>
+      <c r="AO9" s="14"/>
+      <c r="AP9" s="14"/>
+      <c r="AQ9" s="14"/>
+      <c r="AR9" s="14"/>
+      <c r="AS9" s="14"/>
+      <c r="AT9" s="14"/>
+      <c r="AU9" s="14"/>
+      <c r="AV9" s="14"/>
+      <c r="AW9" s="14"/>
+      <c r="AX9" s="14"/>
+      <c r="AY9" s="14"/>
+      <c r="AZ9" s="14"/>
+      <c r="BA9" s="34"/>
+    </row>
+    <row r="10" ht="16.5" customHeight="1" spans="1:53">
+      <c r="A10" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="14"/>
+      <c r="AM10" s="14"/>
+      <c r="AN10" s="14"/>
+      <c r="AO10" s="14"/>
+      <c r="AP10" s="14"/>
+      <c r="AQ10" s="14"/>
+      <c r="AR10" s="14"/>
+      <c r="AS10" s="14"/>
+      <c r="AT10" s="14"/>
+      <c r="AU10" s="14"/>
+      <c r="AV10" s="14"/>
+      <c r="AW10" s="14"/>
+      <c r="AX10" s="14"/>
+      <c r="AY10" s="14"/>
+      <c r="AZ10" s="14"/>
+      <c r="BA10" s="34"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1" spans="1:53">
+      <c r="A11" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="14"/>
+      <c r="AJ11" s="14"/>
+      <c r="AK11" s="14"/>
+      <c r="AL11" s="14"/>
+      <c r="AM11" s="14"/>
+      <c r="AN11" s="14"/>
+      <c r="AO11" s="14"/>
+      <c r="AP11" s="14"/>
+      <c r="AQ11" s="14"/>
+      <c r="AR11" s="14"/>
+      <c r="AS11" s="14"/>
+      <c r="AT11" s="14"/>
+      <c r="AU11" s="14"/>
+      <c r="AV11" s="14"/>
+      <c r="AW11" s="14"/>
+      <c r="AX11" s="14"/>
+      <c r="AY11" s="14"/>
+      <c r="AZ11" s="14"/>
+      <c r="BA11" s="34"/>
+    </row>
+    <row r="12" ht="25.5" customHeight="1" spans="1:53">
+      <c r="A12" s="43"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" s="58"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="59"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="58"/>
+      <c r="AD12" s="59"/>
+      <c r="AE12" s="59"/>
+      <c r="AF12" s="58"/>
+      <c r="AG12" s="59"/>
+      <c r="AH12" s="59"/>
+      <c r="AI12" s="58"/>
+      <c r="AJ12" s="58"/>
+      <c r="AK12" s="58"/>
+      <c r="AL12" s="58"/>
+      <c r="AM12" s="58"/>
+      <c r="AN12" s="59"/>
+      <c r="AO12" s="58"/>
+      <c r="AP12" s="59"/>
+      <c r="AQ12" s="58"/>
+      <c r="AR12" s="59"/>
+      <c r="AS12" s="58"/>
+      <c r="AT12" s="58"/>
+      <c r="AU12" s="58"/>
+      <c r="AV12" s="16"/>
+      <c r="AW12" s="16"/>
+      <c r="AX12" s="58"/>
+      <c r="AY12" s="16"/>
+      <c r="AZ12" s="62"/>
+      <c r="BA12" s="66"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A1:AZ1"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AU2"/>
+    <mergeCell ref="AX2:AZ2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="BA2:BA3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D7" r:id="rId2" display="https://www.belastingdienst.nl/rekenhulpen/wisselkoersen/"/>
+  </hyperlinks>
+  <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:BA10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="13" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="10.6696428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3482142857143" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.66964285714286" style="1" customWidth="1"/>
+    <col min="4" max="8" width="8.84821428571429" style="1" customWidth="1"/>
+    <col min="9" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.66964285714286" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5" style="1" customWidth="1"/>
+    <col min="15" max="17" width="8.84821428571429" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.1696428571429" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.34821428571429" style="1" customWidth="1"/>
+    <col min="21" max="21" width="11.3482142857143" style="1" customWidth="1"/>
+    <col min="22" max="22" width="9.16964285714286" style="1" customWidth="1"/>
+    <col min="23" max="23" width="4.34821428571429" style="1" customWidth="1"/>
+    <col min="24" max="24" width="4" style="1" customWidth="1"/>
+    <col min="25" max="26" width="13" style="1" customWidth="1"/>
+    <col min="27" max="27" width="14.3482142857143" style="1" customWidth="1"/>
+    <col min="28" max="28" width="14" style="1" customWidth="1"/>
+    <col min="29" max="29" width="16.8482142857143" style="1" customWidth="1"/>
+    <col min="30" max="30" width="17.5" style="1" customWidth="1"/>
+    <col min="31" max="33" width="11.8482142857143" style="1" customWidth="1"/>
+    <col min="34" max="34" width="5" style="1" customWidth="1"/>
+    <col min="35" max="36" width="5.5" style="1" customWidth="1"/>
+    <col min="37" max="37" width="10" style="1" customWidth="1"/>
+    <col min="38" max="38" width="8.84821428571429" style="1" customWidth="1"/>
+    <col min="39" max="39" width="10.6696428571429" style="1" customWidth="1"/>
+    <col min="40" max="40" width="11.3482142857143" style="1" customWidth="1"/>
+    <col min="41" max="42" width="10.6696428571429" style="1" customWidth="1"/>
+    <col min="43" max="43" width="9" style="1" customWidth="1"/>
+    <col min="44" max="44" width="14.1696428571429" style="1" customWidth="1"/>
+    <col min="45" max="45" width="14.5" style="1" customWidth="1"/>
+    <col min="46" max="46" width="13" style="1" customWidth="1"/>
+    <col min="47" max="47" width="9" style="1" customWidth="1"/>
+    <col min="48" max="48" width="14.8482142857143" style="1" customWidth="1"/>
+    <col min="49" max="49" width="19" style="1" customWidth="1"/>
+    <col min="50" max="51" width="8" style="1" customWidth="1"/>
+    <col min="52" max="52" width="8.16964285714286" style="1" customWidth="1"/>
+    <col min="53" max="53" width="13.8482142857143" style="1" customWidth="1"/>
+    <col min="54" max="16384" width="8.84821428571429" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="8" customHeight="1" spans="1:53">
+      <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -2381,1019 +3902,117 @@
       <c r="AW1" s="3"/>
       <c r="AX1" s="3"/>
       <c r="AY1" s="3"/>
-      <c r="AZ1" s="4"/>
-      <c r="BA1" s="5"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="28"/>
     </row>
-    <row r="2" ht="26.5" customHeight="1">
-      <c r="A2" t="s" s="6">
+    <row r="2" ht="34.5" customHeight="1" spans="1:53">
+      <c r="A2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="5"/>
+      <c r="AQ2" s="5"/>
+      <c r="AR2" s="5"/>
+      <c r="AS2" s="5"/>
+      <c r="AT2" s="5"/>
+      <c r="AU2" s="5"/>
+      <c r="AV2" s="5"/>
+      <c r="AW2" s="5"/>
+      <c r="AX2" s="5"/>
+      <c r="AY2" s="5"/>
+      <c r="AZ2" s="24"/>
+      <c r="BA2" s="29"/>
+    </row>
+    <row r="3" ht="26.5" customHeight="1" spans="1:53">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s" s="6">
+      <c r="B3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="6">
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="6">
+      <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="6">
+      <c r="F3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="6">
+      <c r="G3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="6">
+      <c r="H3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s" s="6">
+      <c r="I3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s" s="6">
+      <c r="J3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="L2" t="s" s="6">
+      <c r="K3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M2" t="s" s="6">
+      <c r="M3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N2" t="s" s="6">
-        <v>14</v>
-      </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="S2" s="7"/>
-      <c r="T2" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="AL2" s="7"/>
-      <c r="AM2" s="7"/>
-      <c r="AN2" s="7"/>
-      <c r="AO2" s="7"/>
-      <c r="AP2" s="7"/>
-      <c r="AQ2" s="7"/>
-      <c r="AR2" s="7"/>
-      <c r="AS2" s="7"/>
-      <c r="AT2" s="7"/>
-      <c r="AU2" s="7"/>
-      <c r="AV2" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="AW2" t="s" s="6">
-        <v>20</v>
-      </c>
-      <c r="AX2" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="AY2" s="7"/>
-      <c r="AZ2" s="7"/>
-      <c r="BA2" t="s" s="8">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="7"/>
-      <c r="N3" t="s" s="6">
-        <v>23</v>
-      </c>
-      <c r="O3" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="P3" t="s" s="6">
-        <v>25</v>
-      </c>
-      <c r="Q3" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="R3" t="s" s="6">
-        <v>27</v>
-      </c>
-      <c r="S3" t="s" s="6">
-        <v>28</v>
-      </c>
-      <c r="T3" t="s" s="6">
-        <v>29</v>
-      </c>
-      <c r="U3" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="V3" t="s" s="6">
-        <v>31</v>
-      </c>
-      <c r="W3" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="X3" t="s" s="6">
-        <v>33</v>
-      </c>
-      <c r="Y3" t="s" s="6">
-        <v>34</v>
-      </c>
-      <c r="Z3" t="s" s="6">
-        <v>35</v>
-      </c>
-      <c r="AA3" t="s" s="6">
-        <v>36</v>
-      </c>
-      <c r="AB3" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="AC3" t="s" s="6">
-        <v>38</v>
-      </c>
-      <c r="AD3" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="AE3" t="s" s="6">
-        <v>40</v>
-      </c>
-      <c r="AF3" t="s" s="6">
-        <v>41</v>
-      </c>
-      <c r="AG3" t="s" s="6">
-        <v>42</v>
-      </c>
-      <c r="AH3" t="s" s="6">
-        <v>43</v>
-      </c>
-      <c r="AI3" t="s" s="6">
-        <v>44</v>
-      </c>
-      <c r="AJ3" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="AK3" t="s" s="6">
-        <v>45</v>
-      </c>
-      <c r="AL3" t="s" s="6">
-        <v>46</v>
-      </c>
-      <c r="AM3" t="s" s="6">
-        <v>47</v>
-      </c>
-      <c r="AN3" t="s" s="6">
-        <v>48</v>
-      </c>
-      <c r="AO3" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="AP3" t="s" s="6">
-        <v>50</v>
-      </c>
-      <c r="AQ3" t="s" s="6">
-        <v>51</v>
-      </c>
-      <c r="AR3" t="s" s="6">
-        <v>52</v>
-      </c>
-      <c r="AS3" t="s" s="6">
-        <v>53</v>
-      </c>
-      <c r="AT3" t="s" s="6">
-        <v>54</v>
-      </c>
-      <c r="AU3" t="s" s="6">
-        <v>55</v>
-      </c>
-      <c r="AV3" s="7"/>
-      <c r="AW3" s="7"/>
-      <c r="AX3" t="s" s="6">
-        <v>56</v>
-      </c>
-      <c r="AY3" t="s" s="10">
-        <v>57</v>
-      </c>
-      <c r="AZ3" t="s" s="6">
-        <v>58</v>
-      </c>
-      <c r="BA3" s="11"/>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="14"/>
-      <c r="AC4" s="16"/>
-      <c r="AD4" s="14"/>
-      <c r="AE4" s="14"/>
-      <c r="AF4" s="16"/>
-      <c r="AG4" s="14"/>
-      <c r="AH4" s="14"/>
-      <c r="AI4" s="16"/>
-      <c r="AJ4" s="16"/>
-      <c r="AK4" s="16"/>
-      <c r="AL4" s="16"/>
-      <c r="AM4" s="16"/>
-      <c r="AN4" s="14"/>
-      <c r="AO4" s="16"/>
-      <c r="AP4" s="14"/>
-      <c r="AQ4" s="16"/>
-      <c r="AR4" s="14"/>
-      <c r="AS4" s="16"/>
-      <c r="AT4" s="16"/>
-      <c r="AU4" s="16"/>
-      <c r="AV4" s="13"/>
-      <c r="AW4" s="13"/>
-      <c r="AX4" s="16"/>
-      <c r="AY4" s="13"/>
-      <c r="AZ4" s="17"/>
-      <c r="BA4" s="18"/>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="21"/>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="21"/>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="23"/>
-      <c r="AG5" s="21"/>
-      <c r="AH5" s="21"/>
-      <c r="AI5" s="23"/>
-      <c r="AJ5" s="23"/>
-      <c r="AK5" s="23"/>
-      <c r="AL5" s="23"/>
-      <c r="AM5" s="23"/>
-      <c r="AN5" s="21"/>
-      <c r="AO5" s="23"/>
-      <c r="AP5" s="21"/>
-      <c r="AQ5" s="23"/>
-      <c r="AR5" s="21"/>
-      <c r="AS5" s="23"/>
-      <c r="AT5" s="23"/>
-      <c r="AU5" s="23"/>
-      <c r="AV5" s="20"/>
-      <c r="AW5" s="20"/>
-      <c r="AX5" s="23"/>
-      <c r="AY5" s="20"/>
-      <c r="AZ5" s="24"/>
-      <c r="BA5" s="25"/>
-    </row>
-    <row r="6" ht="20.25" customHeight="1">
-      <c r="A6" t="s" s="26">
-        <v>59</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="23"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="23"/>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="21"/>
-      <c r="AI6" s="23"/>
-      <c r="AJ6" s="23"/>
-      <c r="AK6" s="23"/>
-      <c r="AL6" s="23"/>
-      <c r="AM6" s="23"/>
-      <c r="AN6" s="21"/>
-      <c r="AO6" s="23"/>
-      <c r="AP6" s="21"/>
-      <c r="AQ6" s="23"/>
-      <c r="AR6" s="21"/>
-      <c r="AS6" s="23"/>
-      <c r="AT6" s="23"/>
-      <c r="AU6" s="23"/>
-      <c r="AV6" s="20"/>
-      <c r="AW6" s="20"/>
-      <c r="AX6" s="23"/>
-      <c r="AY6" s="20"/>
-      <c r="AZ6" s="24"/>
-      <c r="BA6" s="25"/>
-    </row>
-    <row r="7" ht="16.5" customHeight="1">
-      <c r="A7" t="s" s="32">
-        <v>60</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" t="s" s="33">
-        <v>61</v>
-      </c>
-      <c r="D7" t="s" s="34">
-        <v>62</v>
-      </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="20"/>
-      <c r="AE7" s="20"/>
-      <c r="AF7" s="20"/>
-      <c r="AG7" s="20"/>
-      <c r="AH7" s="20"/>
-      <c r="AI7" s="20"/>
-      <c r="AJ7" s="20"/>
-      <c r="AK7" s="20"/>
-      <c r="AL7" s="20"/>
-      <c r="AM7" s="20"/>
-      <c r="AN7" s="20"/>
-      <c r="AO7" s="20"/>
-      <c r="AP7" s="20"/>
-      <c r="AQ7" s="20"/>
-      <c r="AR7" s="20"/>
-      <c r="AS7" s="20"/>
-      <c r="AT7" s="20"/>
-      <c r="AU7" s="20"/>
-      <c r="AV7" s="20"/>
-      <c r="AW7" s="20"/>
-      <c r="AX7" s="20"/>
-      <c r="AY7" s="20"/>
-      <c r="AZ7" s="20"/>
-      <c r="BA7" s="35"/>
-    </row>
-    <row r="8" ht="16.5" customHeight="1">
-      <c r="A8" t="s" s="32">
-        <v>63</v>
-      </c>
-      <c r="B8" s="27"/>
-      <c r="C8" t="s" s="33">
-        <v>64</v>
-      </c>
-      <c r="D8" t="s" s="34">
-        <v>65</v>
-      </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="20"/>
-      <c r="AB8" s="20"/>
-      <c r="AC8" s="20"/>
-      <c r="AD8" s="20"/>
-      <c r="AE8" s="20"/>
-      <c r="AF8" s="20"/>
-      <c r="AG8" s="20"/>
-      <c r="AH8" s="20"/>
-      <c r="AI8" s="20"/>
-      <c r="AJ8" s="20"/>
-      <c r="AK8" s="20"/>
-      <c r="AL8" s="20"/>
-      <c r="AM8" s="20"/>
-      <c r="AN8" s="20"/>
-      <c r="AO8" s="20"/>
-      <c r="AP8" s="20"/>
-      <c r="AQ8" s="20"/>
-      <c r="AR8" s="20"/>
-      <c r="AS8" s="20"/>
-      <c r="AT8" s="20"/>
-      <c r="AU8" s="20"/>
-      <c r="AV8" s="20"/>
-      <c r="AW8" s="20"/>
-      <c r="AX8" s="20"/>
-      <c r="AY8" s="20"/>
-      <c r="AZ8" s="20"/>
-      <c r="BA8" s="35"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="32">
-        <v>66</v>
-      </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
-      <c r="AD9" s="20"/>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="20"/>
-      <c r="AH9" s="20"/>
-      <c r="AI9" s="20"/>
-      <c r="AJ9" s="20"/>
-      <c r="AK9" s="20"/>
-      <c r="AL9" s="20"/>
-      <c r="AM9" s="20"/>
-      <c r="AN9" s="20"/>
-      <c r="AO9" s="20"/>
-      <c r="AP9" s="20"/>
-      <c r="AQ9" s="20"/>
-      <c r="AR9" s="20"/>
-      <c r="AS9" s="20"/>
-      <c r="AT9" s="20"/>
-      <c r="AU9" s="20"/>
-      <c r="AV9" s="20"/>
-      <c r="AW9" s="20"/>
-      <c r="AX9" s="20"/>
-      <c r="AY9" s="20"/>
-      <c r="AZ9" s="20"/>
-      <c r="BA9" s="35"/>
-    </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c r="A10" t="s" s="32">
-        <v>67</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" t="s" s="33">
-        <v>64</v>
-      </c>
-      <c r="D10" t="s" s="34">
-        <v>68</v>
-      </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="20"/>
-      <c r="AE10" s="20"/>
-      <c r="AF10" s="20"/>
-      <c r="AG10" s="20"/>
-      <c r="AH10" s="20"/>
-      <c r="AI10" s="20"/>
-      <c r="AJ10" s="20"/>
-      <c r="AK10" s="20"/>
-      <c r="AL10" s="20"/>
-      <c r="AM10" s="20"/>
-      <c r="AN10" s="20"/>
-      <c r="AO10" s="20"/>
-      <c r="AP10" s="20"/>
-      <c r="AQ10" s="20"/>
-      <c r="AR10" s="20"/>
-      <c r="AS10" s="20"/>
-      <c r="AT10" s="20"/>
-      <c r="AU10" s="20"/>
-      <c r="AV10" s="20"/>
-      <c r="AW10" s="20"/>
-      <c r="AX10" s="20"/>
-      <c r="AY10" s="20"/>
-      <c r="AZ10" s="20"/>
-      <c r="BA10" s="35"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c r="A11" t="s" s="32">
-        <v>69</v>
-      </c>
-      <c r="B11" s="27"/>
-      <c r="C11" t="s" s="33">
-        <v>64</v>
-      </c>
-      <c r="D11" t="s" s="34">
-        <v>68</v>
-      </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="20"/>
-      <c r="AD11" s="20"/>
-      <c r="AE11" s="20"/>
-      <c r="AF11" s="20"/>
-      <c r="AG11" s="20"/>
-      <c r="AH11" s="20"/>
-      <c r="AI11" s="20"/>
-      <c r="AJ11" s="20"/>
-      <c r="AK11" s="20"/>
-      <c r="AL11" s="20"/>
-      <c r="AM11" s="20"/>
-      <c r="AN11" s="20"/>
-      <c r="AO11" s="20"/>
-      <c r="AP11" s="20"/>
-      <c r="AQ11" s="20"/>
-      <c r="AR11" s="20"/>
-      <c r="AS11" s="20"/>
-      <c r="AT11" s="20"/>
-      <c r="AU11" s="20"/>
-      <c r="AV11" s="20"/>
-      <c r="AW11" s="20"/>
-      <c r="AX11" s="20"/>
-      <c r="AY11" s="20"/>
-      <c r="AZ11" s="20"/>
-      <c r="BA11" s="35"/>
-    </row>
-    <row r="12" ht="25.5" customHeight="1">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" t="s" s="41">
-        <v>70</v>
-      </c>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" t="s" s="43">
-        <v>71</v>
-      </c>
-      <c r="N12" s="44"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="44"/>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="44"/>
-      <c r="AB12" s="45"/>
-      <c r="AC12" s="44"/>
-      <c r="AD12" s="45"/>
-      <c r="AE12" s="45"/>
-      <c r="AF12" s="44"/>
-      <c r="AG12" s="45"/>
-      <c r="AH12" s="45"/>
-      <c r="AI12" s="44"/>
-      <c r="AJ12" s="44"/>
-      <c r="AK12" s="44"/>
-      <c r="AL12" s="44"/>
-      <c r="AM12" s="44"/>
-      <c r="AN12" s="45"/>
-      <c r="AO12" s="44"/>
-      <c r="AP12" s="45"/>
-      <c r="AQ12" s="44"/>
-      <c r="AR12" s="45"/>
-      <c r="AS12" s="44"/>
-      <c r="AT12" s="44"/>
-      <c r="AU12" s="44"/>
-      <c r="AV12" s="42"/>
-      <c r="AW12" s="42"/>
-      <c r="AX12" s="44"/>
-      <c r="AY12" s="42"/>
-      <c r="AZ12" s="46"/>
-      <c r="BA12" s="47"/>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A1:AZ1"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AU2"/>
-    <mergeCell ref="AX2:AZ2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="BA2:BA3"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D7" r:id="rId1" location="" tooltip="" display="https://www.belastingdienst.nl/rekenhulpen/wisselkoersen/"/>
-  </hyperlinks>
-  <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:BA10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="10.6719" style="48" customWidth="1"/>
-    <col min="2" max="2" width="11.3516" style="48" customWidth="1"/>
-    <col min="3" max="3" width="7.67188" style="48" customWidth="1"/>
-    <col min="4" max="8" width="8.85156" style="48" customWidth="1"/>
-    <col min="9" max="10" width="12.5" style="48" customWidth="1"/>
-    <col min="11" max="11" width="9" style="48" customWidth="1"/>
-    <col min="12" max="12" width="12.5" style="48" customWidth="1"/>
-    <col min="13" max="13" width="6.67188" style="48" customWidth="1"/>
-    <col min="14" max="14" width="13.5" style="48" customWidth="1"/>
-    <col min="15" max="17" width="8.85156" style="48" customWidth="1"/>
-    <col min="18" max="18" width="9" style="48" customWidth="1"/>
-    <col min="19" max="19" width="10.1719" style="48" customWidth="1"/>
-    <col min="20" max="20" width="9.35156" style="48" customWidth="1"/>
-    <col min="21" max="21" width="11.3516" style="48" customWidth="1"/>
-    <col min="22" max="22" width="9.17188" style="48" customWidth="1"/>
-    <col min="23" max="23" width="4.35156" style="48" customWidth="1"/>
-    <col min="24" max="24" width="4" style="48" customWidth="1"/>
-    <col min="25" max="26" width="13" style="48" customWidth="1"/>
-    <col min="27" max="27" width="14.3516" style="48" customWidth="1"/>
-    <col min="28" max="28" width="14" style="48" customWidth="1"/>
-    <col min="29" max="29" width="16.8516" style="48" customWidth="1"/>
-    <col min="30" max="30" width="17.5" style="48" customWidth="1"/>
-    <col min="31" max="33" width="11.8516" style="48" customWidth="1"/>
-    <col min="34" max="34" width="5" style="48" customWidth="1"/>
-    <col min="35" max="36" width="5.5" style="48" customWidth="1"/>
-    <col min="37" max="37" width="10" style="48" customWidth="1"/>
-    <col min="38" max="38" width="8.85156" style="48" customWidth="1"/>
-    <col min="39" max="39" width="10.6719" style="48" customWidth="1"/>
-    <col min="40" max="40" width="11.3516" style="48" customWidth="1"/>
-    <col min="41" max="42" width="10.6719" style="48" customWidth="1"/>
-    <col min="43" max="43" width="9" style="48" customWidth="1"/>
-    <col min="44" max="44" width="14.1719" style="48" customWidth="1"/>
-    <col min="45" max="45" width="14.5" style="48" customWidth="1"/>
-    <col min="46" max="46" width="13" style="48" customWidth="1"/>
-    <col min="47" max="47" width="9" style="48" customWidth="1"/>
-    <col min="48" max="48" width="14.8516" style="48" customWidth="1"/>
-    <col min="49" max="49" width="19" style="48" customWidth="1"/>
-    <col min="50" max="51" width="8" style="48" customWidth="1"/>
-    <col min="52" max="52" width="8.17188" style="48" customWidth="1"/>
-    <col min="53" max="53" width="13.8516" style="48" customWidth="1"/>
-    <col min="54" max="16384" width="8.85156" style="48" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="8" customHeight="1">
-      <c r="A1" s="49"/>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="50"/>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="50"/>
-      <c r="AS1" s="50"/>
-      <c r="AT1" s="50"/>
-      <c r="AU1" s="50"/>
-      <c r="AV1" s="50"/>
-      <c r="AW1" s="50"/>
-      <c r="AX1" s="50"/>
-      <c r="AY1" s="50"/>
-      <c r="AZ1" s="50"/>
-      <c r="BA1" s="51"/>
-    </row>
-    <row r="2" ht="34.5" customHeight="1">
-      <c r="A2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="3"/>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="3"/>
-      <c r="AS2" s="3"/>
-      <c r="AT2" s="3"/>
-      <c r="AU2" s="3"/>
-      <c r="AV2" s="3"/>
-      <c r="AW2" s="3"/>
-      <c r="AX2" s="3"/>
-      <c r="AY2" s="3"/>
-      <c r="AZ2" s="4"/>
-      <c r="BA2" s="52"/>
-    </row>
-    <row r="3" ht="26.5" customHeight="1">
-      <c r="A3" t="s" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s" s="6">
-        <v>73</v>
-      </c>
-      <c r="C3" t="s" s="6">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s" s="6">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s" s="6">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s" s="6">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s" s="6">
-        <v>7</v>
-      </c>
-      <c r="H3" t="s" s="6">
-        <v>8</v>
-      </c>
-      <c r="I3" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="J3" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="K3" t="s" s="6">
-        <v>74</v>
-      </c>
-      <c r="L3" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="M3" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="N3" t="s" s="6">
+      <c r="N3" s="6" t="s">
         <v>75</v>
       </c>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
-      <c r="R3" t="s" s="6">
+      <c r="R3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="S3" s="7"/>
-      <c r="T3" t="s" s="6">
+      <c r="T3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="U3" s="7"/>
@@ -3410,11 +4029,11 @@
       <c r="AF3" s="7"/>
       <c r="AG3" s="7"/>
       <c r="AH3" s="7"/>
-      <c r="AI3" t="s" s="6">
+      <c r="AI3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="AJ3" s="7"/>
-      <c r="AK3" t="s" s="6">
+      <c r="AK3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="AL3" s="7"/>
@@ -3427,607 +4046,607 @@
       <c r="AS3" s="7"/>
       <c r="AT3" s="7"/>
       <c r="AU3" s="7"/>
-      <c r="AV3" t="s" s="6">
+      <c r="AV3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AW3" t="s" s="6">
+      <c r="AW3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AX3" t="s" s="6">
+      <c r="AX3" s="6" t="s">
         <v>21</v>
       </c>
       <c r="AY3" s="7"/>
       <c r="AZ3" s="7"/>
-      <c r="BA3" t="s" s="8">
+      <c r="BA3" s="30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
+    <row r="4" ht="60" customHeight="1" spans="1:53">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
       <c r="M4" s="7"/>
-      <c r="N4" t="s" s="6">
+      <c r="N4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O4" t="s" s="6">
+      <c r="O4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="P4" t="s" s="6">
+      <c r="P4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" t="s" s="6">
+      <c r="Q4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="R4" t="s" s="6">
+      <c r="R4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S4" t="s" s="6">
+      <c r="S4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="T4" t="s" s="6">
+      <c r="T4" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="U4" t="s" s="10">
+      <c r="U4" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="V4" t="s" s="6">
+      <c r="V4" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="W4" t="s" s="6">
+      <c r="W4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X4" t="s" s="6">
+      <c r="X4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="Y4" t="s" s="6">
+      <c r="Y4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Z4" t="s" s="6">
+      <c r="Z4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AA4" t="s" s="6">
+      <c r="AA4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AB4" t="s" s="6">
+      <c r="AB4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AC4" t="s" s="6">
+      <c r="AC4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AD4" t="s" s="6">
+      <c r="AD4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AE4" t="s" s="6">
+      <c r="AE4" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AF4" t="s" s="6">
+      <c r="AF4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AG4" t="s" s="6">
+      <c r="AG4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AH4" t="s" s="6">
+      <c r="AH4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AI4" t="s" s="6">
+      <c r="AI4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AJ4" t="s" s="6">
+      <c r="AJ4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AK4" t="s" s="6">
-        <v>45</v>
-      </c>
-      <c r="AL4" t="s" s="6">
-        <v>46</v>
-      </c>
-      <c r="AM4" t="s" s="6">
+      <c r="AK4" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AN4" t="s" s="6">
+      <c r="AN4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AO4" t="s" s="6">
+      <c r="AO4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AP4" t="s" s="6">
+      <c r="AP4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AQ4" t="s" s="6">
+      <c r="AQ4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AR4" t="s" s="6">
-        <v>80</v>
-      </c>
-      <c r="AS4" t="s" s="6">
+      <c r="AR4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AT4" t="s" s="6">
+      <c r="AT4" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AU4" t="s" s="6">
+      <c r="AU4" s="6" t="s">
         <v>55</v>
       </c>
       <c r="AV4" s="7"/>
       <c r="AW4" s="7"/>
-      <c r="AX4" t="s" s="6">
+      <c r="AX4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AY4" t="s" s="10">
+      <c r="AY4" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="AZ4" t="s" s="6">
+      <c r="AZ4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="BA4" s="11"/>
+      <c r="BA4" s="31"/>
     </row>
-    <row r="5" ht="26.5" customHeight="1">
-      <c r="A5" s="53">
+    <row r="5" ht="26.5" customHeight="1" spans="1:53">
+      <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" t="s" s="54">
-        <v>81</v>
-      </c>
-      <c r="C5" t="s" s="54">
-        <v>82</v>
-      </c>
-      <c r="D5" s="55">
+      <c r="B5" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="10">
         <v>1</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="8">
         <v>0</v>
       </c>
-      <c r="F5" s="53">
+      <c r="F5" s="8">
         <v>0</v>
       </c>
-      <c r="G5" s="53">
+      <c r="G5" s="8">
         <v>0</v>
       </c>
-      <c r="H5" s="53">
+      <c r="H5" s="8">
         <v>0</v>
       </c>
-      <c r="I5" s="56">
+      <c r="I5" s="18">
         <f>F5*G5*H5</f>
         <v>0</v>
       </c>
-      <c r="J5" s="56">
+      <c r="J5" s="18">
         <f>35.315*I5</f>
         <v>0</v>
       </c>
-      <c r="K5" t="s" s="54">
-        <v>83</v>
-      </c>
-      <c r="L5" t="s" s="54">
-        <v>84</v>
-      </c>
-      <c r="M5" t="s" s="54">
+      <c r="K5" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="N5" s="57">
+      <c r="L5" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="N5" s="19">
         <v>0</v>
       </c>
-      <c r="O5" s="53">
+      <c r="O5" s="8">
         <v>0</v>
       </c>
-      <c r="P5" s="53">
+      <c r="P5" s="8">
         <v>0</v>
       </c>
-      <c r="Q5" s="53">
+      <c r="Q5" s="8">
         <f>P5</f>
         <v>0</v>
       </c>
-      <c r="R5" s="57">
+      <c r="R5" s="19">
         <v>0</v>
       </c>
-      <c r="S5" s="58">
+      <c r="S5" s="20">
         <f>Q5-Q5/(1+R5)</f>
         <v>0</v>
       </c>
-      <c r="T5" s="57">
+      <c r="T5" s="19">
         <v>0</v>
       </c>
-      <c r="U5" t="s" s="59">
+      <c r="U5" s="22" t="str">
         <f>T5*100&amp;"%"</f>
-        <v>86</v>
-      </c>
-      <c r="V5" s="60">
+        <v>0%</v>
+      </c>
+      <c r="V5" s="23">
         <f>Q5*U5</f>
         <v>0</v>
       </c>
-      <c r="W5" s="53">
+      <c r="W5" s="8">
         <v>0</v>
       </c>
-      <c r="X5" s="53">
+      <c r="X5" s="8">
         <v>0</v>
       </c>
-      <c r="Y5" s="57">
+      <c r="Y5" s="19">
         <v>0</v>
       </c>
-      <c r="Z5" s="57">
+      <c r="Z5" s="19">
         <f>Q5*Y5</f>
         <v>0</v>
       </c>
-      <c r="AA5" s="57">
+      <c r="AA5" s="19">
         <v>0</v>
       </c>
-      <c r="AB5" s="57">
+      <c r="AB5" s="19">
         <f>IF(K5="GB",AA5*N5,AA5)</f>
         <v>0</v>
       </c>
-      <c r="AC5" s="53">
+      <c r="AC5" s="8">
         <v>0</v>
       </c>
-      <c r="AD5" s="60">
+      <c r="AD5" s="23">
         <f>AC5*Q5</f>
         <v>0</v>
       </c>
-      <c r="AE5" s="53">
+      <c r="AE5" s="8">
         <v>0</v>
       </c>
-      <c r="AF5" s="57">
+      <c r="AF5" s="19">
         <v>0</v>
       </c>
-      <c r="AG5" s="60">
+      <c r="AG5" s="23">
         <f>IF(K5="GB",AF5*J5,AF5*I5)</f>
         <v>0</v>
       </c>
-      <c r="AH5" s="60">
+      <c r="AH5" s="23">
         <v>0</v>
       </c>
-      <c r="AI5" s="57">
+      <c r="AI5" s="19">
         <v>0</v>
       </c>
-      <c r="AJ5" s="60">
+      <c r="AJ5" s="23">
         <f>AI5*(Q5-S5-V5-W5-X5-Z5-AB5-AD5-AE5-AG5)</f>
         <v>0</v>
       </c>
-      <c r="AK5" s="57">
+      <c r="AK5" s="19">
         <v>0</v>
       </c>
-      <c r="AL5" s="57">
+      <c r="AL5" s="19">
         <f>AK5*E5</f>
         <v>0</v>
       </c>
-      <c r="AM5" s="57">
+      <c r="AM5" s="19">
         <v>0</v>
       </c>
-      <c r="AN5" s="57">
+      <c r="AN5" s="19">
         <f>AM5*E5</f>
         <v>0</v>
       </c>
-      <c r="AO5" s="57">
+      <c r="AO5" s="19">
         <v>0</v>
       </c>
-      <c r="AP5" s="57">
+      <c r="AP5" s="19">
         <f>AO5*E5</f>
         <v>0</v>
       </c>
-      <c r="AQ5" s="57">
+      <c r="AQ5" s="19">
         <v>0</v>
       </c>
-      <c r="AR5" s="57">
+      <c r="AR5" s="19">
         <f>AQ5*E5</f>
         <v>0</v>
       </c>
-      <c r="AS5" s="57">
+      <c r="AS5" s="19">
         <v>0</v>
       </c>
-      <c r="AT5" s="57">
+      <c r="AT5" s="19">
         <f>AS5*E5</f>
         <v>0</v>
       </c>
-      <c r="AU5" s="57">
+      <c r="AU5" s="19">
         <f>AL5+AN5+AP5+AR5+AT5</f>
         <v>0</v>
       </c>
-      <c r="AV5" s="57">
+      <c r="AV5" s="19">
         <f>IF((Q5-S5-V5-Z5-AB5-AD5-AE5-AG5-AJ5-AU5)&lt;1,Q5*0.3,Q5-S5-V5-Z5-AB5-AD5-AE5-AG5-AJ5-AU5)</f>
         <v>0</v>
       </c>
-      <c r="AW5" s="57">
+      <c r="AW5" s="19">
         <f>AV5/(1+AY5)</f>
         <v>0</v>
       </c>
-      <c r="AX5" s="61">
+      <c r="AX5" s="25">
         <v>0</v>
       </c>
-      <c r="AY5" t="s" s="62">
+      <c r="AY5" s="26" t="str">
         <f>AX5*100&amp;"%"</f>
-        <v>86</v>
-      </c>
-      <c r="AZ5" s="63">
+        <v>0%</v>
+      </c>
+      <c r="AZ5" s="27">
         <f>AW5*AX5</f>
         <v>0</v>
       </c>
-      <c r="BA5" s="64">
+      <c r="BA5" s="32">
         <f>AW5*D5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="13"/>
-      <c r="AL6" s="13"/>
-      <c r="AM6" s="13"/>
-      <c r="AN6" s="13"/>
-      <c r="AO6" s="13"/>
-      <c r="AP6" s="13"/>
-      <c r="AQ6" s="13"/>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="13"/>
-      <c r="AT6" s="13"/>
-      <c r="AU6" s="13"/>
-      <c r="AV6" s="13"/>
-      <c r="AW6" s="13"/>
-      <c r="AX6" s="13"/>
-      <c r="AY6" s="13"/>
-      <c r="AZ6" s="13"/>
-      <c r="BA6" s="65"/>
+    <row r="6" ht="16" customHeight="1" spans="1:53">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="12"/>
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="12"/>
+      <c r="AS6" s="12"/>
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12"/>
+      <c r="AV6" s="12"/>
+      <c r="AW6" s="12"/>
+      <c r="AX6" s="12"/>
+      <c r="AY6" s="12"/>
+      <c r="AZ6" s="12"/>
+      <c r="BA6" s="33"/>
     </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="20"/>
-      <c r="AE7" s="20"/>
-      <c r="AF7" s="20"/>
-      <c r="AG7" s="20"/>
-      <c r="AH7" s="20"/>
-      <c r="AI7" s="20"/>
-      <c r="AJ7" s="20"/>
-      <c r="AK7" s="20"/>
-      <c r="AL7" s="20"/>
-      <c r="AM7" s="20"/>
-      <c r="AN7" s="20"/>
-      <c r="AO7" s="20"/>
-      <c r="AP7" s="20"/>
-      <c r="AQ7" s="20"/>
-      <c r="AR7" s="20"/>
-      <c r="AS7" s="20"/>
-      <c r="AT7" s="20"/>
-      <c r="AU7" s="20"/>
-      <c r="AV7" s="20"/>
-      <c r="AW7" s="20"/>
-      <c r="AX7" s="20"/>
-      <c r="AY7" s="20"/>
-      <c r="AZ7" s="20"/>
-      <c r="BA7" s="35"/>
+    <row r="7" ht="16" customHeight="1" spans="1:53">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="14"/>
+      <c r="AM7" s="14"/>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="14"/>
+      <c r="AP7" s="14"/>
+      <c r="AQ7" s="14"/>
+      <c r="AR7" s="14"/>
+      <c r="AS7" s="14"/>
+      <c r="AT7" s="14"/>
+      <c r="AU7" s="14"/>
+      <c r="AV7" s="14"/>
+      <c r="AW7" s="14"/>
+      <c r="AX7" s="14"/>
+      <c r="AY7" s="14"/>
+      <c r="AZ7" s="14"/>
+      <c r="BA7" s="34"/>
     </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="20"/>
-      <c r="AB8" s="20"/>
-      <c r="AC8" s="20"/>
-      <c r="AD8" s="20"/>
-      <c r="AE8" s="20"/>
-      <c r="AF8" s="20"/>
-      <c r="AG8" s="20"/>
-      <c r="AH8" s="20"/>
-      <c r="AI8" s="20"/>
-      <c r="AJ8" s="20"/>
-      <c r="AK8" s="20"/>
-      <c r="AL8" s="20"/>
-      <c r="AM8" s="20"/>
-      <c r="AN8" s="20"/>
-      <c r="AO8" s="20"/>
-      <c r="AP8" s="20"/>
-      <c r="AQ8" s="20"/>
-      <c r="AR8" s="20"/>
-      <c r="AS8" s="20"/>
-      <c r="AT8" s="20"/>
-      <c r="AU8" s="20"/>
-      <c r="AV8" s="20"/>
-      <c r="AW8" s="20"/>
-      <c r="AX8" s="20"/>
-      <c r="AY8" s="20"/>
-      <c r="AZ8" s="20"/>
-      <c r="BA8" s="35"/>
+    <row r="8" ht="16" customHeight="1" spans="1:53">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="14"/>
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="14"/>
+      <c r="AP8" s="14"/>
+      <c r="AQ8" s="14"/>
+      <c r="AR8" s="14"/>
+      <c r="AS8" s="14"/>
+      <c r="AT8" s="14"/>
+      <c r="AU8" s="14"/>
+      <c r="AV8" s="14"/>
+      <c r="AW8" s="14"/>
+      <c r="AX8" s="14"/>
+      <c r="AY8" s="14"/>
+      <c r="AZ8" s="14"/>
+      <c r="BA8" s="34"/>
     </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
-      <c r="AD9" s="20"/>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="20"/>
-      <c r="AH9" s="20"/>
-      <c r="AI9" s="20"/>
-      <c r="AJ9" s="20"/>
-      <c r="AK9" s="20"/>
-      <c r="AL9" s="20"/>
-      <c r="AM9" s="20"/>
-      <c r="AN9" s="20"/>
-      <c r="AO9" s="20"/>
-      <c r="AP9" s="20"/>
-      <c r="AQ9" s="20"/>
-      <c r="AR9" s="20"/>
-      <c r="AS9" s="20"/>
-      <c r="AT9" s="20"/>
-      <c r="AU9" s="20"/>
-      <c r="AV9" s="20"/>
-      <c r="AW9" s="20"/>
-      <c r="AX9" s="20"/>
-      <c r="AY9" s="20"/>
-      <c r="AZ9" s="20"/>
-      <c r="BA9" s="35"/>
+    <row r="9" ht="16" customHeight="1" spans="1:53">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="14"/>
+      <c r="AK9" s="14"/>
+      <c r="AL9" s="14"/>
+      <c r="AM9" s="14"/>
+      <c r="AN9" s="14"/>
+      <c r="AO9" s="14"/>
+      <c r="AP9" s="14"/>
+      <c r="AQ9" s="14"/>
+      <c r="AR9" s="14"/>
+      <c r="AS9" s="14"/>
+      <c r="AT9" s="14"/>
+      <c r="AU9" s="14"/>
+      <c r="AV9" s="14"/>
+      <c r="AW9" s="14"/>
+      <c r="AX9" s="14"/>
+      <c r="AY9" s="14"/>
+      <c r="AZ9" s="14"/>
+      <c r="BA9" s="34"/>
     </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="66"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="42"/>
-      <c r="AB10" s="42"/>
-      <c r="AC10" s="42"/>
-      <c r="AD10" s="42"/>
-      <c r="AE10" s="42"/>
-      <c r="AF10" s="42"/>
-      <c r="AG10" s="42"/>
-      <c r="AH10" s="42"/>
-      <c r="AI10" s="42"/>
-      <c r="AJ10" s="42"/>
-      <c r="AK10" s="42"/>
-      <c r="AL10" s="42"/>
-      <c r="AM10" s="42"/>
-      <c r="AN10" s="42"/>
-      <c r="AO10" s="42"/>
-      <c r="AP10" s="42"/>
-      <c r="AQ10" s="42"/>
-      <c r="AR10" s="42"/>
-      <c r="AS10" s="42"/>
-      <c r="AT10" s="42"/>
-      <c r="AU10" s="42"/>
-      <c r="AV10" s="42"/>
-      <c r="AW10" s="42"/>
-      <c r="AX10" s="42"/>
-      <c r="AY10" s="42"/>
-      <c r="AZ10" s="42"/>
-      <c r="BA10" s="67"/>
+    <row r="10" ht="16" customHeight="1" spans="1:53">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16"/>
+      <c r="AG10" s="16"/>
+      <c r="AH10" s="16"/>
+      <c r="AI10" s="16"/>
+      <c r="AJ10" s="16"/>
+      <c r="AK10" s="16"/>
+      <c r="AL10" s="16"/>
+      <c r="AM10" s="16"/>
+      <c r="AN10" s="16"/>
+      <c r="AO10" s="16"/>
+      <c r="AP10" s="16"/>
+      <c r="AQ10" s="16"/>
+      <c r="AR10" s="16"/>
+      <c r="AS10" s="16"/>
+      <c r="AT10" s="16"/>
+      <c r="AU10" s="16"/>
+      <c r="AV10" s="16"/>
+      <c r="AW10" s="16"/>
+      <c r="AX10" s="16"/>
+      <c r="AY10" s="16"/>
+      <c r="AZ10" s="16"/>
+      <c r="BA10" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -4056,7 +4675,7 @@
     <mergeCell ref="BA3:BA4"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/template/cdiscount.xlsx
+++ b/template/cdiscount.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="94">
   <si>
     <t>European Cdiscount Declared Value-Analysis Report(v2.0)</t>
   </si>
@@ -72,16 +72,16 @@
     <t>Profit</t>
   </si>
   <si>
-    <t>NL LOCAL Cost(Euro/ KG)</t>
+    <t>LOCAL Cost(Euro/ KG)</t>
   </si>
   <si>
     <t xml:space="preserve"> Rate + freight outside EU incl Duty (In Euro)</t>
   </si>
   <si>
-    <t>Customs Value includes freight cost occurred outside EU-NL (In Euro)</t>
-  </si>
-  <si>
-    <t>NL Duty</t>
+    <t>Customs Value includes freight cost occurred outside EU(In Euro)</t>
+  </si>
+  <si>
+    <t>Duty</t>
   </si>
   <si>
     <t>Total Customs Value</t>
@@ -186,13 +186,13 @@
     <t>Subtotal</t>
   </si>
   <si>
-    <t>NL Duty Rate</t>
-  </si>
-  <si>
-    <t>NL Duty Rate(%)</t>
-  </si>
-  <si>
-    <t>NL Duty Amount</t>
+    <t>Duty Rate</t>
+  </si>
+  <si>
+    <t>Duty Rate(%)</t>
+  </si>
+  <si>
+    <t>Duty Amount</t>
   </si>
   <si>
     <t>Information Source</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">                                                                   Powered by</t>
   </si>
   <si>
-    <t>ASL Dutch</t>
+    <t>ASL</t>
   </si>
   <si>
     <t>European Amazon Declared Value-Analysis Report</t>
@@ -326,6 +326,15 @@
     <t>Selling Price in Amazon</t>
   </si>
   <si>
+    <t>NL LOCAL Cost(Euro/ KG)</t>
+  </si>
+  <si>
+    <t>Customs Value includes freight cost occurred outside EU-NL (In Euro)</t>
+  </si>
+  <si>
+    <t>NL Duty</t>
+  </si>
+  <si>
     <t>Referral rares</t>
   </si>
   <si>
@@ -345,6 +354,15 @@
   </si>
   <si>
     <t>Delivery To Amazon</t>
+  </si>
+  <si>
+    <t>NL Duty Rate</t>
+  </si>
+  <si>
+    <t>NL Duty Rate(%)</t>
+  </si>
+  <si>
+    <t>NL Duty Amount</t>
   </si>
   <si>
     <t>AsinCode</t>
@@ -367,17 +385,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="11">
-    <numFmt numFmtId="176" formatCode="0.000000"/>
-    <numFmt numFmtId="177" formatCode="0.0000"/>
-    <numFmt numFmtId="178" formatCode="0.00000000&quot; &quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0&quot; &quot;"/>
+    <numFmt numFmtId="176" formatCode="#,##0.00&quot; &quot;"/>
+    <numFmt numFmtId="177" formatCode="0.00000000&quot; &quot;"/>
+    <numFmt numFmtId="178" formatCode="0.00&quot; &quot;"/>
+    <numFmt numFmtId="179" formatCode="0.0000"/>
+    <numFmt numFmtId="180" formatCode="#,##0&quot; &quot;"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="0.000"/>
+    <numFmt numFmtId="182" formatCode="0.000000"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0.000"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="#,##0.00&quot; &quot;"/>
-    <numFmt numFmtId="182" formatCode="0.00&quot; &quot;"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -426,14 +444,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,9 +474,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -462,10 +503,25 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -500,16 +556,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -522,39 +571,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -569,10 +587,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -610,7 +628,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,49 +712,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,7 +730,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,79 +790,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,12 +809,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,17 +980,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1012,39 +1048,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1059,151 +1062,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1230,7 +1248,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1239,16 +1257,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1263,13 +1281,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1314,39 +1332,39 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="182" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="182" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="182" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2891,7 +2909,7 @@
   <dimension ref="A1:BA12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AN8" sqref="AN8"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="14" customHeight="1"/>
@@ -4034,7 +4052,7 @@
       </c>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="6" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="AL3" s="7"/>
       <c r="AM3" s="7"/>
@@ -4050,10 +4068,10 @@
         <v>19</v>
       </c>
       <c r="AW3" s="6" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="AX3" s="6" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="AY3" s="7"/>
       <c r="AZ3" s="7"/>
@@ -4094,13 +4112,13 @@
         <v>28</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U4" s="21" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="W4" s="6" t="s">
         <v>32</v>
@@ -4127,7 +4145,7 @@
         <v>39</v>
       </c>
       <c r="AE4" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AF4" s="6" t="s">
         <v>41</v>
@@ -4145,10 +4163,10 @@
         <v>17</v>
       </c>
       <c r="AK4" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AL4" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AM4" s="6" t="s">
         <v>47</v>
@@ -4166,7 +4184,7 @@
         <v>51</v>
       </c>
       <c r="AR4" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AS4" s="6" t="s">
         <v>53</v>
@@ -4180,13 +4198,13 @@
       <c r="AV4" s="7"/>
       <c r="AW4" s="7"/>
       <c r="AX4" s="6" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="AY4" s="21" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="AZ4" s="6" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="BA4" s="31"/>
     </row>
@@ -4195,10 +4213,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D5" s="10">
         <v>1</v>
@@ -4224,13 +4242,13 @@
         <v>0</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="N5" s="19">
         <v>0</v>

--- a/template/cdiscount.xlsx
+++ b/template/cdiscount.xlsx
@@ -4,13 +4,26 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15640"/>
+    <workbookView windowHeight="14740"/>
   </bookViews>
   <sheets>
-    <sheet name="LWT for Amzon" sheetId="1" r:id="rId1"/>
+    <sheet name="LWT for CDiscount" sheetId="1" r:id="rId1"/>
     <sheet name="公式模版" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -383,19 +396,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="11">
-    <numFmt numFmtId="176" formatCode="#,##0.00&quot; &quot;"/>
-    <numFmt numFmtId="177" formatCode="0.00000000&quot; &quot;"/>
-    <numFmt numFmtId="178" formatCode="0.00&quot; &quot;"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0&quot; &quot;"/>
+    <numFmt numFmtId="177" formatCode="0.00&quot; &quot;"/>
+    <numFmt numFmtId="178" formatCode="0.00000000&quot; &quot;"/>
     <numFmt numFmtId="179" formatCode="0.0000"/>
-    <numFmt numFmtId="180" formatCode="#,##0&quot; &quot;"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="0.000"/>
-    <numFmt numFmtId="182" formatCode="0.000000"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="#,##0.00&quot; &quot;"/>
+    <numFmt numFmtId="181" formatCode="0.000000"/>
+    <numFmt numFmtId="182" formatCode="0.000"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -444,15 +457,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -466,15 +471,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,21 +481,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,13 +502,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -534,45 +511,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -587,10 +542,68 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -628,43 +641,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,13 +719,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,115 +809,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,11 +993,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1013,11 +1041,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1039,6 +1073,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1047,181 +1090,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1248,7 +1261,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1257,16 +1270,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1287,7 +1300,7 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1332,22 +1345,22 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="182" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="182" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1358,9 +1371,9 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1368,54 +1381,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2909,7 +2922,7 @@
   <dimension ref="A1:BA12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="14" customHeight="1"/>
